--- a/data/depot/Spending Drivers - Parks - Park Size and Visits (2010).xlsx
+++ b/data/depot/Spending Drivers - Parks - Park Size and Visits (2010).xlsx
@@ -4,22 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Federal Parks" sheetId="3" r:id="rId1"/>
     <sheet name="State Parks" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Alabama</t>
   </si>
@@ -395,6 +391,9 @@
       </rPr>
       <t xml:space="preserve">  US National Park Service, Land Resources Board; and unpublished data. Accessed via Statistical Abstract of the United States: 2012, Section 26, Table 1254:  National Park Service (NPS) Visits and Acreage by State: 2010, using gross acreage and recreational visits. </t>
     </r>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -692,870 +691,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="Federal Parks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2">
-            <v>84324.775770000051</v>
-          </cell>
-          <cell r="D2">
-            <v>279337.864</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>22.737179999999999</v>
-          </cell>
-          <cell r="D3">
-            <v>781.55</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>54654.000189999999</v>
-          </cell>
-          <cell r="D4">
-            <v>2274.8429999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>2962.8532200000004</v>
-          </cell>
-          <cell r="D5">
-            <v>10546.15</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>104.9773</v>
-          </cell>
-          <cell r="D6">
-            <v>3125.6640000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>8111.3864400000002</v>
-          </cell>
-          <cell r="D7">
-            <v>34915.675999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>673.58931999999993</v>
-          </cell>
-          <cell r="D8">
-            <v>5635.3069999999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>7.7815900000000005</v>
-          </cell>
-          <cell r="D9">
-            <v>19.312999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>7.0896099999999995</v>
-          </cell>
-          <cell r="D11">
-            <v>33140.004999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>2638.3890899999997</v>
-          </cell>
-          <cell r="D12">
-            <v>9222.9809999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>63.419620000000002</v>
-          </cell>
-          <cell r="D13">
-            <v>6776.5559999999996</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>369.12359000000004</v>
-          </cell>
-          <cell r="D14">
-            <v>4493.1229999999996</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>518.03269999999998</v>
-          </cell>
-          <cell r="D15">
-            <v>530.97699999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0.11512</v>
-          </cell>
-          <cell r="D16">
-            <v>354.125</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>15.377930000000001</v>
-          </cell>
-          <cell r="D17">
-            <v>2395.4850000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>2.71319</v>
-          </cell>
-          <cell r="D18">
-            <v>222.29499999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>11.635530000000001</v>
-          </cell>
-          <cell r="D19">
-            <v>100.361</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>95.415909999999997</v>
-          </cell>
-          <cell r="D20">
-            <v>1797.894</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>24.107400000000002</v>
-          </cell>
-          <cell r="D21">
-            <v>496.32900000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>90.284999999999997</v>
-          </cell>
-          <cell r="D22">
-            <v>2504.2080000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>73.388339999999999</v>
-          </cell>
-          <cell r="D23">
-            <v>3541.57</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>57.961580000000005</v>
-          </cell>
-          <cell r="D24">
-            <v>9913.5010000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>718.22816</v>
-          </cell>
-          <cell r="D25">
-            <v>1796.0060000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>301.34280000000001</v>
-          </cell>
-          <cell r="D26">
-            <v>540.19500000000005</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>118.73264999999999</v>
-          </cell>
-          <cell r="D27">
-            <v>6588.0259999999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>83.474699999999999</v>
-          </cell>
-          <cell r="D28">
-            <v>4140.5439999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>1274.3736000000001</v>
-          </cell>
-          <cell r="D29">
-            <v>4584.0110000000004</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>45.734970000000004</v>
-          </cell>
-          <cell r="D30">
-            <v>290.32299999999998</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>778.51244999999994</v>
-          </cell>
-          <cell r="D31">
-            <v>5399.4390000000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>21.889230000000001</v>
-          </cell>
-          <cell r="D32">
-            <v>30.940999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>99.206310000000002</v>
-          </cell>
-          <cell r="D33">
-            <v>5858.4430000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>391.3639</v>
-          </cell>
-          <cell r="D34">
-            <v>1657.55</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>72.898009999999999</v>
-          </cell>
-          <cell r="D35">
-            <v>17506.352999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>406.26815999999997</v>
-          </cell>
-          <cell r="D36">
-            <v>17093.464</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>72.57929</v>
-          </cell>
-          <cell r="D37">
-            <v>659.92700000000002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>34.149550000000005</v>
-          </cell>
-          <cell r="D38">
-            <v>2738.2750000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>10.240729999999999</v>
-          </cell>
-          <cell r="D39">
-            <v>1266.1890000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>199.09481</v>
-          </cell>
-          <cell r="D40">
-            <v>888.35799999999995</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>137.66304</v>
-          </cell>
-          <cell r="D41">
-            <v>8970.4750000000004</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>4.5599999999999998E-3</v>
-          </cell>
-          <cell r="D42">
-            <v>51.558999999999997</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>32.184290000000004</v>
-          </cell>
-          <cell r="D43">
-            <v>1529.172</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>297.41303000000005</v>
-          </cell>
-          <cell r="D44">
-            <v>4199.2669999999998</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>385.80520000000001</v>
-          </cell>
-          <cell r="D45">
-            <v>7898.5569999999998</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>1245.08503</v>
-          </cell>
-          <cell r="D46">
-            <v>5495.1559999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>2117.0432700000001</v>
-          </cell>
-          <cell r="D47">
-            <v>8975.5249999999996</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>23.193069999999999</v>
-          </cell>
-          <cell r="D48">
-            <v>31.209</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>363.66446000000002</v>
-          </cell>
-          <cell r="D49">
-            <v>22708.338</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1967.4358300000001</v>
-          </cell>
-          <cell r="D50">
-            <v>7281.7849999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>92.670310000000001</v>
-          </cell>
-          <cell r="D51">
-            <v>1811.722</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>133.75435999999999</v>
-          </cell>
-          <cell r="D52">
-            <v>251.14500000000001</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>2396.3901499999997</v>
-          </cell>
-          <cell r="D53">
-            <v>6307.9970000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="State Parks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2">
-            <v>13997.22126</v>
-          </cell>
-          <cell r="D2">
-            <v>740733.01575000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>48.154000000000003</v>
-          </cell>
-          <cell r="D3">
-            <v>3838.5680000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>3386.7020000000002</v>
-          </cell>
-          <cell r="D4">
-            <v>5405.2380000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>64.087999999999994</v>
-          </cell>
-          <cell r="D5">
-            <v>2267.4070000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>54.161999999999999</v>
-          </cell>
-          <cell r="D6">
-            <v>8830.8160000000007</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1570.864</v>
-          </cell>
-          <cell r="D7">
-            <v>65036.233999999997</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>225.19900000000001</v>
-          </cell>
-          <cell r="D8">
-            <v>12285.251</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>206.53399999999999</v>
-          </cell>
-          <cell r="D9">
-            <v>8208.7510000000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>25.632000000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>4947.1480000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>.</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>.</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>704.13699999999994</v>
-          </cell>
-          <cell r="D12">
-            <v>20110.021000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>86.917000000000002</v>
-          </cell>
-          <cell r="D13">
-            <v>9722.2430000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>33.832999999999998</v>
-          </cell>
-          <cell r="D14">
-            <v>10425.184999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>46.097000000000001</v>
-          </cell>
-          <cell r="D15">
-            <v>4649.326</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>488.03699999999998</v>
-          </cell>
-          <cell r="D16">
-            <v>42293.523000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>179.65799999999999</v>
-          </cell>
-          <cell r="D17">
-            <v>15846.351000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>69.448999999999998</v>
-          </cell>
-          <cell r="D18">
-            <v>14373.901</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>32.9</v>
-          </cell>
-          <cell r="D19">
-            <v>7800.1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>45.433999999999997</v>
-          </cell>
-          <cell r="D20">
-            <v>7013.1197499999998</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>43.878999999999998</v>
-          </cell>
-          <cell r="D21">
-            <v>2068.7939999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>97.344999999999999</v>
-          </cell>
-          <cell r="D22">
-            <v>2602.0970000000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>134.09800000000001</v>
-          </cell>
-          <cell r="D23">
-            <v>10131.635</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>349.77600000000001</v>
-          </cell>
-          <cell r="D24">
-            <v>35270.78</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>285.14999999999998</v>
-          </cell>
-          <cell r="D25">
-            <v>21167.13</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>284.21699999999998</v>
-          </cell>
-          <cell r="D26">
-            <v>8922.1350000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>23.614999999999998</v>
-          </cell>
-          <cell r="D27">
-            <v>1217.4090000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>204.17099999999999</v>
-          </cell>
-          <cell r="D28">
-            <v>16214.98</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>45.92</v>
-          </cell>
-          <cell r="D29">
-            <v>1896.183</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>134.68100000000001</v>
-          </cell>
-          <cell r="D30">
-            <v>11143.763000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>146.065</v>
-          </cell>
-          <cell r="D31">
-            <v>3045.556</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>232.834</v>
-          </cell>
-          <cell r="D32">
-            <v>1585.665</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>437.32100000000003</v>
-          </cell>
-          <cell r="D33">
-            <v>17163.594000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>99.254999999999995</v>
-          </cell>
-          <cell r="D34">
-            <v>4768.71</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>1354.2819999999999</v>
-          </cell>
-          <cell r="D35">
-            <v>56322</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>211.18199999999999</v>
-          </cell>
-          <cell r="D36">
-            <v>14899.148999999999</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>19.841999999999999</v>
-          </cell>
-          <cell r="D37">
-            <v>1086.058</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>174.33799999999999</v>
-          </cell>
-          <cell r="D38">
-            <v>53813.555999999997</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>71.593999999999994</v>
-          </cell>
-          <cell r="D39">
-            <v>11087.825999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>103.473</v>
-          </cell>
-          <cell r="D40">
-            <v>43755.24</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>294.11099999999999</v>
-          </cell>
-          <cell r="D41">
-            <v>38523.250999999997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>9.4749999999999996</v>
-          </cell>
-          <cell r="D42">
-            <v>5871.9440000000004</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>84.573999999999998</v>
-          </cell>
-          <cell r="D43">
-            <v>8197.4830000000002</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>103.479</v>
-          </cell>
-          <cell r="D44">
-            <v>7785.5020000000004</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>180.52500000000001</v>
-          </cell>
-          <cell r="D45">
-            <v>29918.632000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>615.30200000000002</v>
-          </cell>
-          <cell r="D46">
-            <v>7473.6930000000002</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>150.75654</v>
-          </cell>
-          <cell r="D47">
-            <v>4682.9589999999998</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>69.289000000000001</v>
-          </cell>
-          <cell r="D48">
-            <v>758.28200000000004</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>70.067999999999998</v>
-          </cell>
-          <cell r="D49">
-            <v>7463.46</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>108.59699999999999</v>
-          </cell>
-          <cell r="D50">
-            <v>44134.792999999998</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>177.13300000000001</v>
-          </cell>
-          <cell r="D51">
-            <v>7171.4610000000002</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>293.26900000000001</v>
-          </cell>
-          <cell r="D52">
-            <v>14469.998</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>119.80772</v>
-          </cell>
-          <cell r="D53">
-            <v>3066.1149999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1845,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,11 +1023,9 @@
         <v>53</v>
       </c>
       <c r="C3" s="3">
-        <f>'[1]Federal Parks'!C2</f>
         <v>84324.775770000051</v>
       </c>
       <c r="D3" s="3">
-        <f>'[1]Federal Parks'!D2</f>
         <v>279337.864</v>
       </c>
     </row>
@@ -1904,11 +1037,9 @@
         <v>54</v>
       </c>
       <c r="C4" s="5">
-        <f>'[1]Federal Parks'!C3</f>
         <v>22.737179999999999</v>
       </c>
       <c r="D4" s="5">
-        <f>'[1]Federal Parks'!D3</f>
         <v>781.55</v>
       </c>
     </row>
@@ -1920,11 +1051,9 @@
         <v>55</v>
       </c>
       <c r="C5" s="5">
-        <f>'[1]Federal Parks'!C4</f>
         <v>54654.000189999999</v>
       </c>
       <c r="D5" s="5">
-        <f>'[1]Federal Parks'!D4</f>
         <v>2274.8429999999998</v>
       </c>
     </row>
@@ -1936,11 +1065,9 @@
         <v>56</v>
       </c>
       <c r="C6" s="5">
-        <f>'[1]Federal Parks'!C5</f>
         <v>2962.8532200000004</v>
       </c>
       <c r="D6" s="5">
-        <f>'[1]Federal Parks'!D5</f>
         <v>10546.15</v>
       </c>
     </row>
@@ -1952,11 +1079,9 @@
         <v>57</v>
       </c>
       <c r="C7" s="5">
-        <f>'[1]Federal Parks'!C6</f>
         <v>104.9773</v>
       </c>
       <c r="D7" s="5">
-        <f>'[1]Federal Parks'!D6</f>
         <v>3125.6640000000002</v>
       </c>
     </row>
@@ -1968,11 +1093,9 @@
         <v>58</v>
       </c>
       <c r="C8" s="5">
-        <f>'[1]Federal Parks'!C7</f>
         <v>8111.3864400000002</v>
       </c>
       <c r="D8" s="5">
-        <f>'[1]Federal Parks'!D7</f>
         <v>34915.675999999999</v>
       </c>
     </row>
@@ -1984,11 +1107,9 @@
         <v>59</v>
       </c>
       <c r="C9" s="5">
-        <f>'[1]Federal Parks'!C8</f>
         <v>673.58931999999993</v>
       </c>
       <c r="D9" s="5">
-        <f>'[1]Federal Parks'!D8</f>
         <v>5635.3069999999998</v>
       </c>
     </row>
@@ -2000,11 +1121,9 @@
         <v>60</v>
       </c>
       <c r="C10" s="5">
-        <f>'[1]Federal Parks'!C9</f>
         <v>7.7815900000000005</v>
       </c>
       <c r="D10" s="5">
-        <f>'[1]Federal Parks'!D9</f>
         <v>19.312999999999999</v>
       </c>
     </row>
@@ -2016,11 +1135,9 @@
         <v>61</v>
       </c>
       <c r="C11" s="5">
-        <f>'[1]Federal Parks'!C10</f>
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <f>'[1]Federal Parks'!D10</f>
         <v>0</v>
       </c>
     </row>
@@ -2032,11 +1149,9 @@
         <v>62</v>
       </c>
       <c r="C12" s="5">
-        <f>'[1]Federal Parks'!C11</f>
         <v>7.0896099999999995</v>
       </c>
       <c r="D12" s="5">
-        <f>'[1]Federal Parks'!D11</f>
         <v>33140.004999999997</v>
       </c>
     </row>
@@ -2048,11 +1163,9 @@
         <v>63</v>
       </c>
       <c r="C13" s="5">
-        <f>'[1]Federal Parks'!C12</f>
         <v>2638.3890899999997</v>
       </c>
       <c r="D13" s="5">
-        <f>'[1]Federal Parks'!D12</f>
         <v>9222.9809999999998</v>
       </c>
     </row>
@@ -2064,11 +1177,9 @@
         <v>64</v>
       </c>
       <c r="C14" s="5">
-        <f>'[1]Federal Parks'!C13</f>
         <v>63.419620000000002</v>
       </c>
       <c r="D14" s="5">
-        <f>'[1]Federal Parks'!D13</f>
         <v>6776.5559999999996</v>
       </c>
     </row>
@@ -2080,11 +1191,9 @@
         <v>65</v>
       </c>
       <c r="C15" s="5">
-        <f>'[1]Federal Parks'!C14</f>
         <v>369.12359000000004</v>
       </c>
       <c r="D15" s="5">
-        <f>'[1]Federal Parks'!D14</f>
         <v>4493.1229999999996</v>
       </c>
     </row>
@@ -2096,11 +1205,9 @@
         <v>66</v>
       </c>
       <c r="C16" s="5">
-        <f>'[1]Federal Parks'!C15</f>
         <v>518.03269999999998</v>
       </c>
       <c r="D16" s="5">
-        <f>'[1]Federal Parks'!D15</f>
         <v>530.97699999999998</v>
       </c>
     </row>
@@ -2112,11 +1219,9 @@
         <v>67</v>
       </c>
       <c r="C17" s="5">
-        <f>'[1]Federal Parks'!C16</f>
         <v>0.11512</v>
       </c>
       <c r="D17" s="5">
-        <f>'[1]Federal Parks'!D16</f>
         <v>354.125</v>
       </c>
     </row>
@@ -2128,11 +1233,9 @@
         <v>68</v>
       </c>
       <c r="C18" s="5">
-        <f>'[1]Federal Parks'!C17</f>
         <v>15.377930000000001</v>
       </c>
       <c r="D18" s="5">
-        <f>'[1]Federal Parks'!D17</f>
         <v>2395.4850000000001</v>
       </c>
     </row>
@@ -2144,11 +1247,9 @@
         <v>69</v>
       </c>
       <c r="C19" s="5">
-        <f>'[1]Federal Parks'!C18</f>
         <v>2.71319</v>
       </c>
       <c r="D19" s="5">
-        <f>'[1]Federal Parks'!D18</f>
         <v>222.29499999999999</v>
       </c>
     </row>
@@ -2160,11 +1261,9 @@
         <v>70</v>
       </c>
       <c r="C20" s="5">
-        <f>'[1]Federal Parks'!C19</f>
         <v>11.635530000000001</v>
       </c>
       <c r="D20" s="5">
-        <f>'[1]Federal Parks'!D19</f>
         <v>100.361</v>
       </c>
     </row>
@@ -2176,11 +1275,9 @@
         <v>71</v>
       </c>
       <c r="C21" s="5">
-        <f>'[1]Federal Parks'!C20</f>
         <v>95.415909999999997</v>
       </c>
       <c r="D21" s="5">
-        <f>'[1]Federal Parks'!D20</f>
         <v>1797.894</v>
       </c>
     </row>
@@ -2192,11 +1289,9 @@
         <v>72</v>
       </c>
       <c r="C22" s="5">
-        <f>'[1]Federal Parks'!C21</f>
         <v>24.107400000000002</v>
       </c>
       <c r="D22" s="5">
-        <f>'[1]Federal Parks'!D21</f>
         <v>496.32900000000001</v>
       </c>
     </row>
@@ -2208,11 +1303,9 @@
         <v>73</v>
       </c>
       <c r="C23" s="5">
-        <f>'[1]Federal Parks'!C22</f>
         <v>90.284999999999997</v>
       </c>
       <c r="D23" s="5">
-        <f>'[1]Federal Parks'!D22</f>
         <v>2504.2080000000001</v>
       </c>
     </row>
@@ -2224,11 +1317,9 @@
         <v>74</v>
       </c>
       <c r="C24" s="5">
-        <f>'[1]Federal Parks'!C23</f>
         <v>73.388339999999999</v>
       </c>
       <c r="D24" s="5">
-        <f>'[1]Federal Parks'!D23</f>
         <v>3541.57</v>
       </c>
     </row>
@@ -2240,11 +1331,9 @@
         <v>75</v>
       </c>
       <c r="C25" s="5">
-        <f>'[1]Federal Parks'!C24</f>
         <v>57.961580000000005</v>
       </c>
       <c r="D25" s="5">
-        <f>'[1]Federal Parks'!D24</f>
         <v>9913.5010000000002</v>
       </c>
     </row>
@@ -2256,11 +1345,9 @@
         <v>76</v>
       </c>
       <c r="C26" s="5">
-        <f>'[1]Federal Parks'!C25</f>
         <v>718.22816</v>
       </c>
       <c r="D26" s="5">
-        <f>'[1]Federal Parks'!D25</f>
         <v>1796.0060000000001</v>
       </c>
     </row>
@@ -2272,11 +1359,9 @@
         <v>77</v>
       </c>
       <c r="C27" s="5">
-        <f>'[1]Federal Parks'!C26</f>
         <v>301.34280000000001</v>
       </c>
       <c r="D27" s="5">
-        <f>'[1]Federal Parks'!D26</f>
         <v>540.19500000000005</v>
       </c>
     </row>
@@ -2288,11 +1373,9 @@
         <v>78</v>
       </c>
       <c r="C28" s="5">
-        <f>'[1]Federal Parks'!C27</f>
         <v>118.73264999999999</v>
       </c>
       <c r="D28" s="5">
-        <f>'[1]Federal Parks'!D27</f>
         <v>6588.0259999999998</v>
       </c>
     </row>
@@ -2304,11 +1387,9 @@
         <v>79</v>
       </c>
       <c r="C29" s="5">
-        <f>'[1]Federal Parks'!C28</f>
         <v>83.474699999999999</v>
       </c>
       <c r="D29" s="5">
-        <f>'[1]Federal Parks'!D28</f>
         <v>4140.5439999999999</v>
       </c>
     </row>
@@ -2320,11 +1401,9 @@
         <v>80</v>
       </c>
       <c r="C30" s="5">
-        <f>'[1]Federal Parks'!C29</f>
         <v>1274.3736000000001</v>
       </c>
       <c r="D30" s="5">
-        <f>'[1]Federal Parks'!D29</f>
         <v>4584.0110000000004</v>
       </c>
     </row>
@@ -2336,11 +1415,9 @@
         <v>81</v>
       </c>
       <c r="C31" s="5">
-        <f>'[1]Federal Parks'!C30</f>
         <v>45.734970000000004</v>
       </c>
       <c r="D31" s="5">
-        <f>'[1]Federal Parks'!D30</f>
         <v>290.32299999999998</v>
       </c>
     </row>
@@ -2352,11 +1429,9 @@
         <v>82</v>
       </c>
       <c r="C32" s="5">
-        <f>'[1]Federal Parks'!C31</f>
         <v>778.51244999999994</v>
       </c>
       <c r="D32" s="5">
-        <f>'[1]Federal Parks'!D31</f>
         <v>5399.4390000000003</v>
       </c>
     </row>
@@ -2368,11 +1443,9 @@
         <v>83</v>
       </c>
       <c r="C33" s="5">
-        <f>'[1]Federal Parks'!C32</f>
         <v>21.889230000000001</v>
       </c>
       <c r="D33" s="5">
-        <f>'[1]Federal Parks'!D32</f>
         <v>30.940999999999999</v>
       </c>
     </row>
@@ -2384,11 +1457,9 @@
         <v>84</v>
       </c>
       <c r="C34" s="5">
-        <f>'[1]Federal Parks'!C33</f>
         <v>99.206310000000002</v>
       </c>
       <c r="D34" s="5">
-        <f>'[1]Federal Parks'!D33</f>
         <v>5858.4430000000002</v>
       </c>
     </row>
@@ -2400,11 +1471,9 @@
         <v>85</v>
       </c>
       <c r="C35" s="5">
-        <f>'[1]Federal Parks'!C34</f>
         <v>391.3639</v>
       </c>
       <c r="D35" s="5">
-        <f>'[1]Federal Parks'!D34</f>
         <v>1657.55</v>
       </c>
     </row>
@@ -2416,11 +1485,9 @@
         <v>86</v>
       </c>
       <c r="C36" s="5">
-        <f>'[1]Federal Parks'!C35</f>
         <v>72.898009999999999</v>
       </c>
       <c r="D36" s="5">
-        <f>'[1]Federal Parks'!D35</f>
         <v>17506.352999999999</v>
       </c>
     </row>
@@ -2432,11 +1499,9 @@
         <v>87</v>
       </c>
       <c r="C37" s="5">
-        <f>'[1]Federal Parks'!C36</f>
         <v>406.26815999999997</v>
       </c>
       <c r="D37" s="5">
-        <f>'[1]Federal Parks'!D36</f>
         <v>17093.464</v>
       </c>
     </row>
@@ -2448,11 +1513,9 @@
         <v>88</v>
       </c>
       <c r="C38" s="5">
-        <f>'[1]Federal Parks'!C37</f>
         <v>72.57929</v>
       </c>
       <c r="D38" s="5">
-        <f>'[1]Federal Parks'!D37</f>
         <v>659.92700000000002</v>
       </c>
     </row>
@@ -2464,11 +1527,9 @@
         <v>89</v>
       </c>
       <c r="C39" s="5">
-        <f>'[1]Federal Parks'!C38</f>
         <v>34.149550000000005</v>
       </c>
       <c r="D39" s="5">
-        <f>'[1]Federal Parks'!D38</f>
         <v>2738.2750000000001</v>
       </c>
     </row>
@@ -2480,11 +1541,9 @@
         <v>90</v>
       </c>
       <c r="C40" s="5">
-        <f>'[1]Federal Parks'!C39</f>
         <v>10.240729999999999</v>
       </c>
       <c r="D40" s="5">
-        <f>'[1]Federal Parks'!D39</f>
         <v>1266.1890000000001</v>
       </c>
     </row>
@@ -2496,11 +1555,9 @@
         <v>91</v>
       </c>
       <c r="C41" s="5">
-        <f>'[1]Federal Parks'!C40</f>
         <v>199.09481</v>
       </c>
       <c r="D41" s="5">
-        <f>'[1]Federal Parks'!D40</f>
         <v>888.35799999999995</v>
       </c>
     </row>
@@ -2512,11 +1569,9 @@
         <v>92</v>
       </c>
       <c r="C42" s="5">
-        <f>'[1]Federal Parks'!C41</f>
         <v>137.66304</v>
       </c>
       <c r="D42" s="5">
-        <f>'[1]Federal Parks'!D41</f>
         <v>8970.4750000000004</v>
       </c>
     </row>
@@ -2528,11 +1583,9 @@
         <v>93</v>
       </c>
       <c r="C43" s="5">
-        <f>'[1]Federal Parks'!C42</f>
         <v>4.5599999999999998E-3</v>
       </c>
       <c r="D43" s="5">
-        <f>'[1]Federal Parks'!D42</f>
         <v>51.558999999999997</v>
       </c>
     </row>
@@ -2544,11 +1597,9 @@
         <v>94</v>
       </c>
       <c r="C44" s="5">
-        <f>'[1]Federal Parks'!C43</f>
         <v>32.184290000000004</v>
       </c>
       <c r="D44" s="5">
-        <f>'[1]Federal Parks'!D43</f>
         <v>1529.172</v>
       </c>
     </row>
@@ -2560,11 +1611,9 @@
         <v>95</v>
       </c>
       <c r="C45" s="5">
-        <f>'[1]Federal Parks'!C44</f>
         <v>297.41303000000005</v>
       </c>
       <c r="D45" s="5">
-        <f>'[1]Federal Parks'!D44</f>
         <v>4199.2669999999998</v>
       </c>
     </row>
@@ -2576,11 +1625,9 @@
         <v>96</v>
       </c>
       <c r="C46" s="5">
-        <f>'[1]Federal Parks'!C45</f>
         <v>385.80520000000001</v>
       </c>
       <c r="D46" s="5">
-        <f>'[1]Federal Parks'!D45</f>
         <v>7898.5569999999998</v>
       </c>
     </row>
@@ -2592,11 +1639,9 @@
         <v>97</v>
       </c>
       <c r="C47" s="5">
-        <f>'[1]Federal Parks'!C46</f>
         <v>1245.08503</v>
       </c>
       <c r="D47" s="5">
-        <f>'[1]Federal Parks'!D46</f>
         <v>5495.1559999999999</v>
       </c>
     </row>
@@ -2608,11 +1653,9 @@
         <v>98</v>
       </c>
       <c r="C48" s="5">
-        <f>'[1]Federal Parks'!C47</f>
         <v>2117.0432700000001</v>
       </c>
       <c r="D48" s="5">
-        <f>'[1]Federal Parks'!D47</f>
         <v>8975.5249999999996</v>
       </c>
     </row>
@@ -2624,11 +1667,9 @@
         <v>99</v>
       </c>
       <c r="C49" s="5">
-        <f>'[1]Federal Parks'!C48</f>
         <v>23.193069999999999</v>
       </c>
       <c r="D49" s="5">
-        <f>'[1]Federal Parks'!D48</f>
         <v>31.209</v>
       </c>
     </row>
@@ -2640,11 +1681,9 @@
         <v>100</v>
       </c>
       <c r="C50" s="5">
-        <f>'[1]Federal Parks'!C49</f>
         <v>363.66446000000002</v>
       </c>
       <c r="D50" s="5">
-        <f>'[1]Federal Parks'!D49</f>
         <v>22708.338</v>
       </c>
     </row>
@@ -2656,11 +1695,9 @@
         <v>101</v>
       </c>
       <c r="C51" s="5">
-        <f>'[1]Federal Parks'!C50</f>
         <v>1967.4358300000001</v>
       </c>
       <c r="D51" s="5">
-        <f>'[1]Federal Parks'!D50</f>
         <v>7281.7849999999999</v>
       </c>
     </row>
@@ -2672,11 +1709,9 @@
         <v>102</v>
       </c>
       <c r="C52" s="5">
-        <f>'[1]Federal Parks'!C51</f>
         <v>92.670310000000001</v>
       </c>
       <c r="D52" s="5">
-        <f>'[1]Federal Parks'!D51</f>
         <v>1811.722</v>
       </c>
     </row>
@@ -2688,11 +1723,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="5">
-        <f>'[1]Federal Parks'!C52</f>
         <v>133.75435999999999</v>
       </c>
       <c r="D53" s="5">
-        <f>'[1]Federal Parks'!D52</f>
         <v>251.14500000000001</v>
       </c>
     </row>
@@ -2704,11 +1737,9 @@
         <v>104</v>
       </c>
       <c r="C54" s="5">
-        <f>'[1]Federal Parks'!C53</f>
         <v>2396.3901499999997</v>
       </c>
       <c r="D54" s="5">
-        <f>'[1]Federal Parks'!D53</f>
         <v>6307.9970000000003</v>
       </c>
     </row>
@@ -2763,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,11 +1837,9 @@
         <v>53</v>
       </c>
       <c r="C3" s="3">
-        <f>'[2]State Parks'!C2</f>
         <v>13997.22126</v>
       </c>
       <c r="D3" s="3">
-        <f>'[2]State Parks'!D2</f>
         <v>740733.01575000002</v>
       </c>
     </row>
@@ -2822,11 +1851,9 @@
         <v>54</v>
       </c>
       <c r="C4" s="5">
-        <f>'[2]State Parks'!C3</f>
         <v>48.154000000000003</v>
       </c>
       <c r="D4" s="5">
-        <f>'[2]State Parks'!D3</f>
         <v>3838.5680000000002</v>
       </c>
     </row>
@@ -2838,11 +1865,9 @@
         <v>55</v>
       </c>
       <c r="C5" s="5">
-        <f>'[2]State Parks'!C4</f>
         <v>3386.7020000000002</v>
       </c>
       <c r="D5" s="5">
-        <f>'[2]State Parks'!D4</f>
         <v>5405.2380000000003</v>
       </c>
     </row>
@@ -2854,11 +1879,9 @@
         <v>56</v>
       </c>
       <c r="C6" s="5">
-        <f>'[2]State Parks'!C5</f>
         <v>64.087999999999994</v>
       </c>
       <c r="D6" s="5">
-        <f>'[2]State Parks'!D5</f>
         <v>2267.4070000000002</v>
       </c>
     </row>
@@ -2870,11 +1893,9 @@
         <v>57</v>
       </c>
       <c r="C7" s="5">
-        <f>'[2]State Parks'!C6</f>
         <v>54.161999999999999</v>
       </c>
       <c r="D7" s="5">
-        <f>'[2]State Parks'!D6</f>
         <v>8830.8160000000007</v>
       </c>
     </row>
@@ -2886,11 +1907,9 @@
         <v>58</v>
       </c>
       <c r="C8" s="5">
-        <f>'[2]State Parks'!C7</f>
         <v>1570.864</v>
       </c>
       <c r="D8" s="5">
-        <f>'[2]State Parks'!D7</f>
         <v>65036.233999999997</v>
       </c>
     </row>
@@ -2902,11 +1921,9 @@
         <v>59</v>
       </c>
       <c r="C9" s="5">
-        <f>'[2]State Parks'!C8</f>
         <v>225.19900000000001</v>
       </c>
       <c r="D9" s="5">
-        <f>'[2]State Parks'!D8</f>
         <v>12285.251</v>
       </c>
     </row>
@@ -2918,11 +1935,9 @@
         <v>60</v>
       </c>
       <c r="C10" s="5">
-        <f>'[2]State Parks'!C9</f>
         <v>206.53399999999999</v>
       </c>
       <c r="D10" s="5">
-        <f>'[2]State Parks'!D9</f>
         <v>8208.7510000000002</v>
       </c>
     </row>
@@ -2934,11 +1949,9 @@
         <v>61</v>
       </c>
       <c r="C11" s="5">
-        <f>'[2]State Parks'!C10</f>
         <v>25.632000000000001</v>
       </c>
       <c r="D11" s="5">
-        <f>'[2]State Parks'!D10</f>
         <v>4947.1480000000001</v>
       </c>
     </row>
@@ -2949,13 +1962,11 @@
       <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f>'[2]State Parks'!C11</f>
-        <v>.</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f>'[2]State Parks'!D11</f>
-        <v>.</v>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2966,11 +1977,9 @@
         <v>63</v>
       </c>
       <c r="C13" s="5">
-        <f>'[2]State Parks'!C12</f>
         <v>704.13699999999994</v>
       </c>
       <c r="D13" s="5">
-        <f>'[2]State Parks'!D12</f>
         <v>20110.021000000001</v>
       </c>
     </row>
@@ -2982,11 +1991,9 @@
         <v>64</v>
       </c>
       <c r="C14" s="5">
-        <f>'[2]State Parks'!C13</f>
         <v>86.917000000000002</v>
       </c>
       <c r="D14" s="5">
-        <f>'[2]State Parks'!D13</f>
         <v>9722.2430000000004</v>
       </c>
     </row>
@@ -2998,11 +2005,9 @@
         <v>65</v>
       </c>
       <c r="C15" s="5">
-        <f>'[2]State Parks'!C14</f>
         <v>33.832999999999998</v>
       </c>
       <c r="D15" s="5">
-        <f>'[2]State Parks'!D14</f>
         <v>10425.184999999999</v>
       </c>
     </row>
@@ -3014,11 +2019,9 @@
         <v>66</v>
       </c>
       <c r="C16" s="5">
-        <f>'[2]State Parks'!C15</f>
         <v>46.097000000000001</v>
       </c>
       <c r="D16" s="5">
-        <f>'[2]State Parks'!D15</f>
         <v>4649.326</v>
       </c>
     </row>
@@ -3030,11 +2033,9 @@
         <v>67</v>
       </c>
       <c r="C17" s="5">
-        <f>'[2]State Parks'!C16</f>
         <v>488.03699999999998</v>
       </c>
       <c r="D17" s="5">
-        <f>'[2]State Parks'!D16</f>
         <v>42293.523000000001</v>
       </c>
     </row>
@@ -3046,11 +2047,9 @@
         <v>68</v>
       </c>
       <c r="C18" s="5">
-        <f>'[2]State Parks'!C17</f>
         <v>179.65799999999999</v>
       </c>
       <c r="D18" s="5">
-        <f>'[2]State Parks'!D17</f>
         <v>15846.351000000001</v>
       </c>
     </row>
@@ -3062,11 +2061,9 @@
         <v>69</v>
       </c>
       <c r="C19" s="5">
-        <f>'[2]State Parks'!C18</f>
         <v>69.448999999999998</v>
       </c>
       <c r="D19" s="5">
-        <f>'[2]State Parks'!D18</f>
         <v>14373.901</v>
       </c>
     </row>
@@ -3078,11 +2075,9 @@
         <v>70</v>
       </c>
       <c r="C20" s="5">
-        <f>'[2]State Parks'!C19</f>
         <v>32.9</v>
       </c>
       <c r="D20" s="5">
-        <f>'[2]State Parks'!D19</f>
         <v>7800.1</v>
       </c>
     </row>
@@ -3094,11 +2089,9 @@
         <v>71</v>
       </c>
       <c r="C21" s="5">
-        <f>'[2]State Parks'!C20</f>
         <v>45.433999999999997</v>
       </c>
       <c r="D21" s="5">
-        <f>'[2]State Parks'!D20</f>
         <v>7013.1197499999998</v>
       </c>
     </row>
@@ -3110,11 +2103,9 @@
         <v>72</v>
       </c>
       <c r="C22" s="5">
-        <f>'[2]State Parks'!C21</f>
         <v>43.878999999999998</v>
       </c>
       <c r="D22" s="5">
-        <f>'[2]State Parks'!D21</f>
         <v>2068.7939999999999</v>
       </c>
     </row>
@@ -3126,11 +2117,9 @@
         <v>73</v>
       </c>
       <c r="C23" s="5">
-        <f>'[2]State Parks'!C22</f>
         <v>97.344999999999999</v>
       </c>
       <c r="D23" s="5">
-        <f>'[2]State Parks'!D22</f>
         <v>2602.0970000000002</v>
       </c>
     </row>
@@ -3142,11 +2131,9 @@
         <v>74</v>
       </c>
       <c r="C24" s="5">
-        <f>'[2]State Parks'!C23</f>
         <v>134.09800000000001</v>
       </c>
       <c r="D24" s="5">
-        <f>'[2]State Parks'!D23</f>
         <v>10131.635</v>
       </c>
     </row>
@@ -3158,11 +2145,9 @@
         <v>75</v>
       </c>
       <c r="C25" s="5">
-        <f>'[2]State Parks'!C24</f>
         <v>349.77600000000001</v>
       </c>
       <c r="D25" s="5">
-        <f>'[2]State Parks'!D24</f>
         <v>35270.78</v>
       </c>
     </row>
@@ -3174,11 +2159,9 @@
         <v>76</v>
       </c>
       <c r="C26" s="5">
-        <f>'[2]State Parks'!C25</f>
         <v>285.14999999999998</v>
       </c>
       <c r="D26" s="5">
-        <f>'[2]State Parks'!D25</f>
         <v>21167.13</v>
       </c>
     </row>
@@ -3190,11 +2173,9 @@
         <v>77</v>
       </c>
       <c r="C27" s="5">
-        <f>'[2]State Parks'!C26</f>
         <v>284.21699999999998</v>
       </c>
       <c r="D27" s="5">
-        <f>'[2]State Parks'!D26</f>
         <v>8922.1350000000002</v>
       </c>
     </row>
@@ -3206,11 +2187,9 @@
         <v>78</v>
       </c>
       <c r="C28" s="5">
-        <f>'[2]State Parks'!C27</f>
         <v>23.614999999999998</v>
       </c>
       <c r="D28" s="5">
-        <f>'[2]State Parks'!D27</f>
         <v>1217.4090000000001</v>
       </c>
     </row>
@@ -3222,11 +2201,9 @@
         <v>79</v>
       </c>
       <c r="C29" s="5">
-        <f>'[2]State Parks'!C28</f>
         <v>204.17099999999999</v>
       </c>
       <c r="D29" s="5">
-        <f>'[2]State Parks'!D28</f>
         <v>16214.98</v>
       </c>
     </row>
@@ -3238,11 +2215,9 @@
         <v>80</v>
       </c>
       <c r="C30" s="5">
-        <f>'[2]State Parks'!C29</f>
         <v>45.92</v>
       </c>
       <c r="D30" s="5">
-        <f>'[2]State Parks'!D29</f>
         <v>1896.183</v>
       </c>
     </row>
@@ -3254,11 +2229,9 @@
         <v>81</v>
       </c>
       <c r="C31" s="5">
-        <f>'[2]State Parks'!C30</f>
         <v>134.68100000000001</v>
       </c>
       <c r="D31" s="5">
-        <f>'[2]State Parks'!D30</f>
         <v>11143.763000000001</v>
       </c>
     </row>
@@ -3270,11 +2243,9 @@
         <v>82</v>
       </c>
       <c r="C32" s="5">
-        <f>'[2]State Parks'!C31</f>
         <v>146.065</v>
       </c>
       <c r="D32" s="5">
-        <f>'[2]State Parks'!D31</f>
         <v>3045.556</v>
       </c>
     </row>
@@ -3286,11 +2257,9 @@
         <v>83</v>
       </c>
       <c r="C33" s="5">
-        <f>'[2]State Parks'!C32</f>
         <v>232.834</v>
       </c>
       <c r="D33" s="5">
-        <f>'[2]State Parks'!D32</f>
         <v>1585.665</v>
       </c>
     </row>
@@ -3302,11 +2271,9 @@
         <v>84</v>
       </c>
       <c r="C34" s="5">
-        <f>'[2]State Parks'!C33</f>
         <v>437.32100000000003</v>
       </c>
       <c r="D34" s="5">
-        <f>'[2]State Parks'!D33</f>
         <v>17163.594000000001</v>
       </c>
     </row>
@@ -3318,11 +2285,9 @@
         <v>85</v>
       </c>
       <c r="C35" s="5">
-        <f>'[2]State Parks'!C34</f>
         <v>99.254999999999995</v>
       </c>
       <c r="D35" s="5">
-        <f>'[2]State Parks'!D34</f>
         <v>4768.71</v>
       </c>
     </row>
@@ -3334,11 +2299,9 @@
         <v>86</v>
       </c>
       <c r="C36" s="5">
-        <f>'[2]State Parks'!C35</f>
         <v>1354.2819999999999</v>
       </c>
       <c r="D36" s="5">
-        <f>'[2]State Parks'!D35</f>
         <v>56322</v>
       </c>
     </row>
@@ -3350,11 +2313,9 @@
         <v>87</v>
       </c>
       <c r="C37" s="5">
-        <f>'[2]State Parks'!C36</f>
         <v>211.18199999999999</v>
       </c>
       <c r="D37" s="5">
-        <f>'[2]State Parks'!D36</f>
         <v>14899.148999999999</v>
       </c>
     </row>
@@ -3366,11 +2327,9 @@
         <v>88</v>
       </c>
       <c r="C38" s="5">
-        <f>'[2]State Parks'!C37</f>
         <v>19.841999999999999</v>
       </c>
       <c r="D38" s="5">
-        <f>'[2]State Parks'!D37</f>
         <v>1086.058</v>
       </c>
     </row>
@@ -3382,11 +2341,9 @@
         <v>89</v>
       </c>
       <c r="C39" s="5">
-        <f>'[2]State Parks'!C38</f>
         <v>174.33799999999999</v>
       </c>
       <c r="D39" s="5">
-        <f>'[2]State Parks'!D38</f>
         <v>53813.555999999997</v>
       </c>
     </row>
@@ -3398,11 +2355,9 @@
         <v>90</v>
       </c>
       <c r="C40" s="5">
-        <f>'[2]State Parks'!C39</f>
         <v>71.593999999999994</v>
       </c>
       <c r="D40" s="5">
-        <f>'[2]State Parks'!D39</f>
         <v>11087.825999999999</v>
       </c>
     </row>
@@ -3414,11 +2369,9 @@
         <v>91</v>
       </c>
       <c r="C41" s="5">
-        <f>'[2]State Parks'!C40</f>
         <v>103.473</v>
       </c>
       <c r="D41" s="5">
-        <f>'[2]State Parks'!D40</f>
         <v>43755.24</v>
       </c>
     </row>
@@ -3430,11 +2383,9 @@
         <v>92</v>
       </c>
       <c r="C42" s="5">
-        <f>'[2]State Parks'!C41</f>
         <v>294.11099999999999</v>
       </c>
       <c r="D42" s="5">
-        <f>'[2]State Parks'!D41</f>
         <v>38523.250999999997</v>
       </c>
     </row>
@@ -3446,11 +2397,9 @@
         <v>93</v>
       </c>
       <c r="C43" s="5">
-        <f>'[2]State Parks'!C42</f>
         <v>9.4749999999999996</v>
       </c>
       <c r="D43" s="5">
-        <f>'[2]State Parks'!D42</f>
         <v>5871.9440000000004</v>
       </c>
     </row>
@@ -3462,11 +2411,9 @@
         <v>94</v>
       </c>
       <c r="C44" s="5">
-        <f>'[2]State Parks'!C43</f>
         <v>84.573999999999998</v>
       </c>
       <c r="D44" s="5">
-        <f>'[2]State Parks'!D43</f>
         <v>8197.4830000000002</v>
       </c>
     </row>
@@ -3478,11 +2425,9 @@
         <v>95</v>
       </c>
       <c r="C45" s="5">
-        <f>'[2]State Parks'!C44</f>
         <v>103.479</v>
       </c>
       <c r="D45" s="5">
-        <f>'[2]State Parks'!D44</f>
         <v>7785.5020000000004</v>
       </c>
     </row>
@@ -3494,11 +2439,9 @@
         <v>96</v>
       </c>
       <c r="C46" s="5">
-        <f>'[2]State Parks'!C45</f>
         <v>180.52500000000001</v>
       </c>
       <c r="D46" s="5">
-        <f>'[2]State Parks'!D45</f>
         <v>29918.632000000001</v>
       </c>
     </row>
@@ -3510,11 +2453,9 @@
         <v>97</v>
       </c>
       <c r="C47" s="5">
-        <f>'[2]State Parks'!C46</f>
         <v>615.30200000000002</v>
       </c>
       <c r="D47" s="5">
-        <f>'[2]State Parks'!D46</f>
         <v>7473.6930000000002</v>
       </c>
     </row>
@@ -3526,11 +2467,9 @@
         <v>98</v>
       </c>
       <c r="C48" s="5">
-        <f>'[2]State Parks'!C47</f>
         <v>150.75654</v>
       </c>
       <c r="D48" s="5">
-        <f>'[2]State Parks'!D47</f>
         <v>4682.9589999999998</v>
       </c>
     </row>
@@ -3542,11 +2481,9 @@
         <v>99</v>
       </c>
       <c r="C49" s="5">
-        <f>'[2]State Parks'!C48</f>
         <v>69.289000000000001</v>
       </c>
       <c r="D49" s="5">
-        <f>'[2]State Parks'!D48</f>
         <v>758.28200000000004</v>
       </c>
     </row>
@@ -3558,11 +2495,9 @@
         <v>100</v>
       </c>
       <c r="C50" s="5">
-        <f>'[2]State Parks'!C49</f>
         <v>70.067999999999998</v>
       </c>
       <c r="D50" s="5">
-        <f>'[2]State Parks'!D49</f>
         <v>7463.46</v>
       </c>
     </row>
@@ -3574,11 +2509,9 @@
         <v>101</v>
       </c>
       <c r="C51" s="5">
-        <f>'[2]State Parks'!C50</f>
         <v>108.59699999999999</v>
       </c>
       <c r="D51" s="5">
-        <f>'[2]State Parks'!D50</f>
         <v>44134.792999999998</v>
       </c>
     </row>
@@ -3590,11 +2523,9 @@
         <v>102</v>
       </c>
       <c r="C52" s="5">
-        <f>'[2]State Parks'!C51</f>
         <v>177.13300000000001</v>
       </c>
       <c r="D52" s="5">
-        <f>'[2]State Parks'!D51</f>
         <v>7171.4610000000002</v>
       </c>
     </row>
@@ -3606,11 +2537,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="5">
-        <f>'[2]State Parks'!C52</f>
         <v>293.26900000000001</v>
       </c>
       <c r="D53" s="5">
-        <f>'[2]State Parks'!D52</f>
         <v>14469.998</v>
       </c>
     </row>
@@ -3622,11 +2551,9 @@
         <v>104</v>
       </c>
       <c r="C54" s="5">
-        <f>'[2]State Parks'!C53</f>
         <v>119.80772</v>
       </c>
       <c r="D54" s="5">
-        <f>'[2]State Parks'!D53</f>
         <v>3066.1149999999998</v>
       </c>
     </row>
